--- a/platform_scrapper/src/copy_fikapsupply.xlsx
+++ b/platform_scrapper/src/copy_fikapsupply.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:N97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,21 +499,26 @@
           <t>zones</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>checked</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SCARBOROUGH</t>
+          <t>WINDSOR</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FIKA LOCAL CANNABIS</t>
+          <t>Greentown Cannabis Discount Hut</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1900 EGLINTON AVE E UNIT F0002</t>
+          <t>1519 DROUILLARD RD</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -523,7 +528,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://fikasupply.com/</t>
+          <t>http://greentowndiscount.com/</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -534,52 +539,61 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping']</t>
+          <t>['Delivery', 'In-store pick-up', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>16477990924</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>12267042190</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>['Delivery']</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>CORNWALL</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>adaasd</t>
+          <t>Groove Cannabis Co. Inc.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>asdasdad</t>
+          <t>1380 SECOND ST E UNIT 26</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>never open again</t>
+          <t>Authorized to Open</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>http-testing.com</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+          <t>http://groovecannabis.com/</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>18888183452</v>
+        <v>16139353717</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -589,21 +603,22 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SCARBOROUGH</t>
+          <t xml:space="preserve">SOUTH LANCASTER </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FIKA LOCAL CANNABIS</t>
+          <t>Groove Cannabis Co.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>797 MILNER AVE UNIT 200</t>
+          <t>6327 COUNTY RD 2 UNIT 3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -613,7 +628,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://fikasupply.com/</t>
+          <t>http://groovecannabis.com/</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -624,31 +639,32 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping']</t>
+          <t>['In-store pick-up', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>16477990925</v>
+        <v>16133130555</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SUDBURY</t>
+          <t>BRAMPTON</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FIKA LOCAL CANNABIS</t>
+          <t>Growcery Cannabis</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2408 LONG LAKE RD UNIT E006</t>
+          <t>178 QUEEN STREET WEST (MAIN FLOOR)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -658,46 +674,43 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://fikasupply.com/</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
+          <t>http://growcerycannabis.ca/</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>17058050979</v>
+        <v>16479195500</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>EAST YORK</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fika Canary</t>
+          <t>Growers Retail</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>430 FRONT ST E UNIT 15A</t>
+          <t>1021 PAPE AVE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -707,7 +720,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://fikasupply.com/</t>
+          <t>http://growersretailcannabis.ca/</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -722,27 +735,28 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>16476941556</v>
+        <v>14164213746</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>ETOBICOKE</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FIKA Cannabis</t>
+          <t>Growers Retail</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>65 FRONT ST W UNIT 405</t>
+          <t>970 THE QUEENSWAY</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -752,7 +766,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://fikasupply.com/</t>
+          <t>http://growersretailcannabis.ca/</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -767,27 +781,28 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>14162192869</v>
+        <v>14162554567</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>PETERBOROUGH</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FIKA LOCAL CANNABIS</t>
+          <t>GROWERS RETAIL</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1025 LAKE SHORE BLVD E UNIT 11</t>
+          <t>225 GEORGE ST N</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -797,7 +812,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://fikasupply.com/</t>
+          <t>http://growersretailcannabis.ca/</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -808,31 +823,36 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>14166034592</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
+        <v>17057421110</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>WINDSOR</t>
+          <t>SCARBOROUGH</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FIKA LOCAL CANNABIS</t>
+          <t>Growers Retail</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3222A DOUGALL AVE</t>
+          <t>2002 LAWRENCE AVE E</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -842,7 +862,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://fikasupply.com/</t>
+          <t>http://growersretailcannabis.ca/</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -853,35 +873,32 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>12267836236</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>['No delivery']</t>
-        </is>
-      </c>
+        <v>14162858558</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LONDON</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FIKA LOCAL CANNABIS</t>
+          <t>GROWERS RETAIL</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1965 HYDE PARK RD UNIT 104A</t>
+          <t>492 PARLIAMENT ST</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -891,7 +908,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://fikasupply.com/stores/</t>
+          <t>http://growersretailcannabis.ca/</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -902,31 +919,36 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping']</t>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>12267850590</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
+        <v>14164081111</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ETOBICOKE</t>
+          <t>WATERLOO</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FIKA LOCAL CANNABIS</t>
+          <t>Growers Retail</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>171 NORTH QUEEN ST UNIT G4A</t>
+          <t>50 WESTMOUNT RD N</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -936,7 +958,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://fikasupply.com/stores/etobicoke/</t>
+          <t>http://growersretailcannabis.ca/</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -951,27 +973,28 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>16477990918</v>
+        <v>12264760575</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LONDON</t>
+          <t>ROCKWOOD</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FIKA LOCAL CANNABIS</t>
+          <t xml:space="preserve">GreenSpace Co </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>340 CLARKE RD UNIT 3</t>
+          <t>126 MAIN ST S</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -981,12 +1004,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://fikasupply.com/stores/london-east/</t>
+          <t>http://gspacecannabis.com/</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Dutchie</t>
+          <t>Buddi</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -996,27 +1019,28 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>12262713839</v>
+        <v>15196050433</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">MILTON </t>
+          <t>HAMILTON</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FIKA LOCAL CANNABIS</t>
+          <t>The Gym Cannabis</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1290 STEELES AVENUE EAST UNIT C3.3</t>
+          <t>135 JAMES ST N</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1026,7 +1050,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://fikasupply.com/stores/milton-steeles/</t>
+          <t>http://gymcannabis.ca/</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1036,16 +1060,16 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>611123ab139dab00cdd7bb5b</t>
+          <t>5eea89e7032d4a014c5029dc</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>12892701021</v>
+        <v>12892721359</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1055,21 +1079,22 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">OSHAWA </t>
+          <t>NORTH BAY</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FIKA LOCAL CANNABIS</t>
+          <t>Happy Life</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1445 HARMONY RD N UNIT 100</t>
+          <t>42 LAKESHORE DR</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1079,7 +1104,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://fikasupply.com/stores/oshawa-harmony/</t>
+          <t>http://happylifepotshop.ca/</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1094,27 +1119,28 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>12892744004</v>
+        <v>17054785499</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MISSISSAUGA</t>
+          <t>NORTH BAY</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FIKA Local Cannabis</t>
+          <t>Happy Life</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2955 HAZELTON PL UNIT 29</t>
+          <t>1307 ALGONQUIN AVE SUITE 1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1124,7 +1150,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://fikasupply.com/stores/toronto-distillery/</t>
+          <t>http://happylifepotshop.ca/</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1132,14 +1158,18 @@
           <t>Dutchie</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>5eb35ea6d26406015a313ce7</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>18888183452</v>
+        <v>17054786695</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1149,21 +1179,22 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>THUNDER BAY</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Fika Distillery</t>
+          <t>HAPPY LIFE</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>49 TANK HOUSE LANE</t>
+          <t>1170 MEMORIAL AVE</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1173,7 +1204,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://fikasupply.com/stores/toronto-distillery/</t>
+          <t>http://happylifepotshop.ca/</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1184,20 +1215,3759 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>18888183452</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>['No delivery']</t>
-        </is>
-      </c>
+        <v>18073435520</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ARMSTRONG STATION</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Happy Time</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>16 KING STREET</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>http://happytimepreschoolinc.com/</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>19164226777</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>OSHAWA</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>HAPPY WAY CANNABIS</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>8 MIDTOWN DR SUITE 2</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>http://happywaycannabis.ca/</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>16476275609</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>KITCHENER</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Harvest Cannabis Co</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>376 VICTORIA ST N UNIT 5A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>http://harvestcannabisco.ca/</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>15195698220</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>LONDON</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HELLO CANNABIS YORK ST </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>73 YORK ST</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>http://hellocannabis.ca/london</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>15194320888</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ORANGEVILLE</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Hempire House</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>59 FIRST ST</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>http://hempirehouse.ca/</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>15193074367</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>NIAGARA FALLS</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>High End Cannabis Co.</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>6080 MCLEOD RD UNIT 5</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>http://highendcannabisco.ca/</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>12892962768</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>['Delivery']</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>AMHERSTBURG</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Higher Limits Cannabis Company</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>400 SANDWICH ST S UNIT 1300</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>http://higherlimits.com/</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>15197139116</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>BLENHEIM</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Higher Limits Cannabis Company</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>52 CATHERINE ST UNIT 4</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>http://higherlimits.com/</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>12263670433</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HANMER </t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>HIGHLIFE CANNABIS HANMER EXPRESS</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>5085 OLD HWY 69</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>http://highlife.ca/</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>17059690808</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>NORTH YORK</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Highlife on Finch Retail</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1295 FINCH AVE W UNIT 1</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>http://highlife.ca/</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>14166350420</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>PETERBOROUGH</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Highlife Cannabis Peterborough</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>119 GEORGE ST N</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>http://highlife.ca/</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>17057452885</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>SAULT STE. MARIE</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>HIGHLIFE SSM</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>625 TRUNK RD UNIT 9</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>http://highlife.ca/</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>17059493288</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>['Delivery']</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>OTTAWA</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>HIGH LITE CANNABIS STORE</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1581 BANK ST UNIT B</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>http://highlitecannabis.ca/</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>16137310420</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>High Park Cannabis Co.</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>3064 DUNDAS ST W</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>http://highparkcc.ca/</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>14166043673</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>LANCASTER</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Highties Cannabis Store</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>184 MILITARY RD</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>http://highties.ca/</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>16133471010</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>OTTAWA</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Highties Cannabis Store</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>3320 MCCARTHY RD UNIT 2006</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>http://highties.ca/</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>16136803420</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>['Delivery']</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>SCOTLAND</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>HIGH-WAY GRASS BAR</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>230 OAKLAND RD RR 1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>http://highwaygrassbar.ca/</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>60084b335c8aed6ed8272393</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>15194463048</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ORANGEVILLE</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>HOLLAND DAZE</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>150 FIRST ST UNIT G4</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>http://hollanddaze.ca/</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>15199403171</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>KANATA</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>HURBN CANNABIS COMPANY</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>767 SILVER SEVEN RD UNIT 26</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>http://hurbn.ca/</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>60229712f530cb00ce567859</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>16136722600</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>SCARBOROUGH</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Hypnos Cannabis</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>3474 DANFORTH AVE</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>http://hypnoscannabis.ca/</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>14166994400</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>['Delivery']</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>BRANTFORD</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hypnotic Cannabis </t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>116 DALHOUSIE ST</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>http://hypnoticfarms.com/</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>['In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>19187089959</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>LONDON</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Lux Smoke Vape/Cafe</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>467 WHARNCLIFFE RD S</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>http://instagram.com/lux__smoke/?hl=en</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>18134754848</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>IPOT</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>141 QUEEN ST E</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>http://ipotweed.com/</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>['Kerbside pickup', 'In-store pick-up', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>14163623003</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>LONDON</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>KANNABIS KING</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1066 ADELAIDE ST N UNIT 4</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>http://kannabisking.ca/</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>15486909020</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>['Delivery']</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>OMEMEE</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>KAWARTHA SMOKE</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1 KING ST E</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>http://kawarthasmoke.ca/</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>17057995000</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>STURGEON FALLS</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>KING OF QUEENS CANNABIS COMPANY</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>218 MAIN ST</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>http://kingofqueenscannabis.com/</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>17054821716</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>K’S POT SHOP</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1342 QUEEN ST E</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>http://kspotshop.ca/</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>14164065329</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>YORK</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Kush Klub</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2250 EGLINTON AVE W</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>http://kushklub.ca/</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>14167890966</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>ETOBICOKE</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>KUSH KORNER CANNABIS</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2807 LAKE SHORE BLVD W</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>http://kushkorner.ca/</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>6137d4cc118f6e00b166752b</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>14162511010</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>ETOBICOKE</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Lakeview Cannabis</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>4 MIMICO AVE</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>http://lakeviewcannabis.ca/</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>14162535253</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>MITCHELL</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Leaf &amp; Embers</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>24 ONTARIO RD</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>http://leafandembers.ca/</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>12263032282</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Little House Cannabis</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>307 WELLESLEY ST E</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>http://littlehouseto.com/</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>14169292525</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>NORTH YORK</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Local Products The Cannabis Store</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>704 WILSON AVE</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>http://localproductscannabis.com/</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>14165464112</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Lockstock. Cannabis</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>8 GLADSTONE AVE UNIT 1B</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>http://lockstockcannabis.com/</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>16473950883</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>London Haze</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>458 KINGSTON RD</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>http://londonhaze.ca/</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>60ba91cc21b3f700cac9399a</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>14166946464</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>TRENTON</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Lucky Plus Cannabis</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>22530 LOYALIST PKY</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>http://luckyplusvapeshop.net/</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>['In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>16139559472</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>COBOURG</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Mary J's Cannabis Cobourg</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>38 KING ST W</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>http://maryjcannabis.ca/</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>19053736279</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>GLOUCESTER</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Mary J's Cannabis Riverside South</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>3771 SPRATT RD UNIT 7</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>http://maryjcannabis.ca/</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>['In-store pick-up', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>16134250455</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>GREELY</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Mary J's Cannabis Greely</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>6045 BANK ST. UNITS 302 &amp; 303</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>http://maryjcannabis.ca/</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>16138210095</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>KINGSTON</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Mary J's Cannabis</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>154 DIVISION ST</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>http://maryjcannabis.ca/</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>16135487282</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>ORLEANS</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Mary J's Cannabis</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1968 PORTOBELLO BOULEVARD UNIT 2 </t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>http://maryjcannabis.ca/</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>16138242829</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>RUSSELL</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>MARY J'S CANNABIS RUSSEL</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>191 CASTOR ST UNIT 1</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>http://maryjcannabis.ca/</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>16134453940</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Mind Flower Cannabis Co.</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>615 KING ST W</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>http://mindflower.ca/</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>16475055874</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>EAST YORK</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>MIRAGE CANNABIS</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>1229 BROADVIEW AVE</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>http://miragecannabis.ca/</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>14164242292</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>OWEN SOUND</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Moonfire Cannabis</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>1050 2ND AVE E SUITE 5</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>http://moonfirecannabis.ca/</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>12266640155</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>HAMILTON</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Mountain Budz</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>560 CONCESSION ST.</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>http://mountainbudz.ca/</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>['In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>19053881334</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>ANCASTER</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Cannaverse</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>1183 WILSON ST W UNIT 5</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>http://mycannaverse.ca/</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>['In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>12894450166</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>KITCHENER</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Cannaverse</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>1190 FISCHER HALLMAN RD</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>http://mycannaverse.ca/</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>12264761062</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PICTON </t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Cannaverse</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>23 GEORGE WRIGHT BLVD UNIT C-1 RR1</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>http://mycannaverse.ca/</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>['In-store pick-up', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>16135170242</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>LONDON</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Neat Cannabis Company</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>590 OXFORD ST E UNIT B</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>http://neatcannabis.com/</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>12266634777</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>BARRIE</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Hemisphere Cannabis Co.</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>15 CEDAR POINTE DR UNIT 11 &amp; 12</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>http://nexuscannabis.ca/</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>12498804202</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>EAST YORK</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>HEMISPHERE CANNABIS CO.</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>1669 BAYVIEW AVE</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>http://nexuscannabis.ca/</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>14167819333</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>NORTH YORK</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Hemisphere Cannabis Co.</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>1887 AVENUE RD</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>http://nexuscannabis.ca/</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>['In-store pick-up', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>14167819333</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>KINGSTON</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Northern Helm Cannabis</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>225 GORE RD UNIT 2</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>http://northernhelm.com/shopkingston</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>60bfb3036f2ec800a6c7ce51</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>16137672222</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>WATERFORD</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Northern Leaf Cannabis Company</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>29 ALICE STREET</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>http://northernleaf.ca/</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>['In-store pick-up', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>15194432107</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>PETERBOROUGH</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>NORTHERN LIGHTS CANNABIS</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>51 LANSDOWNE ST W</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>http://northern-lights.ca/</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>5fd6f1b824a619010096cd34</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>17054389333</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>OSHAWA</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Northern Tokes</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>474 SIMCOE ST S UNIT 2</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>http://northerntokes.com/</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>603e8499832e6b00db882529</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>19052408653</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>SCARBOROUGH</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Northern Tokes </t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>5780 SHEPPARD AVE E UNIT 62</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>http://northerntokes.com/</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>14163358653</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HAMILTON </t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ODYSSEY CANNABIS</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">22 TISDALE ST S. UNIT A </t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>http://odysseycannabis.ca/</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>19055251117</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>NORTH YORK</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>OH CANNABIS</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>344 WILSON AVE</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>http://ohcannabisstore.com/</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>14163981461</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>BRAMPTON</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Value Buds</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>17 WORTHINGTON AVE UNIT 7</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>http://on.valuebuds.com/</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>19054950025</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>BRAMPTON</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Value Buds</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>10886 HURONTARIO ST SUITE A013</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>http://on.valuebuds.com/</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>19059707744</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>GUELPH</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Value Buds</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>73 GORDON ST</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>http://on.valuebuds.com/</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>15192653055</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>HAMILTON</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Value Buds</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>859 BARTON ST E</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>http://on.valuebuds.com/</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>19055452041</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>LONDON</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Value Buds</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>1631 OXFORD ST E SUITE 4</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>http://on.valuebuds.com/</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>12266633026</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>NIAGARA FALLS</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Value Buds</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>3714 PORTAGE RD UNIT 210</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>http://on.valuebuds.com/</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>19053540168</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>NORTH YORK</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Value Buds</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>3300 DUFFERIN ST. UNIT E</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>http://on.valuebuds.com/</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>14167830419</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Value Buds</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>728 QUEEN ST E</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>http://on.valuebuds.com/</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>14164619991</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>WATERLOO</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Value Buds</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>628 KING ST N UNIT A4</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>http://on.valuebuds.com/</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>15198880483</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>['Delivery']</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>CAMBRIDGE</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>One Plant</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>350 HESPELER RD BLDG B UNIT 8</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>http://oneplant.ca/</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>15196224845</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>TECUMSEH</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>On the Cannabis Side</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>13300 TECUMSEH RD E UNIT 155</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>http://onthecannabisside.ca/</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>616737f3250edc00b1964981</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>15197393323</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>PEMBROKE</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>OVCS</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>1035 PEMBROKE ST E</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>http://ovcs.online/</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>16136296827</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>OSHAWA</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>The Peace Pipe</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>31 CELINA ST</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>http://peacepipe420.com/</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>5fd7995b81bf8a00d277da44</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>19057212111</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>PICKERING</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Tokyo Smoke Pickering Town Centre</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>1355 KINGSTON RD SUITE 71</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2023/09/13</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>http://pickeringtowncentre.com/</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>['In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>19056837171</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>CHATHAM</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>PLUTO PLANTS</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>598 QUEEN ST</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>http://plutoplants.ca/</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>6009c22ee1e75f1e872b9772</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>12262960284</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>CHATHAM</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>PLUTO PLANTS</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>598 QUEEN ST</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>http://plutoplants.ca/</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>6009c22ee1e75f1e872b9772</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>12262960284</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>ETOBICOKE</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>PLUTO PLANTS</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>62 MARINE PARADE DR UNIT 4</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>http://plutoplants.ca/</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>16476402899</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>['Delivery']</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>CORNWALL</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Pot of Gold</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>44 PITT ST SUITE A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>http://pogshop.ca/</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>5ed04e0b5f1bc10145cc0b4d</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>16139333666</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>STURGEON FALLS</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>POP’S CANNABIS CO. STURGEON FALLS</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>12006 17 HWY E SUITE 2</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>http://popscannabis.ca/</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>17057071001</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>MISSISSAUGA</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Potherb Cannabis</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2800 SKYMARK AVE UNIT 12</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>http://potherb.ca/</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>17059994420</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>SCARBOROUGH</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Pufftastic Cannabis Company</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>2830 MARKHAM RD</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>http://puffshop.ca/</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>14162930333</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
